--- a/7/2/3/1/Préstamos 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/1/Préstamos 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK75"/>
+  <dimension ref="A1:AK76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9041,31 +9044,31 @@
         <v>7073</v>
       </c>
       <c r="K75">
-        <v>9337</v>
+        <v>8841</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
-        <v>3854</v>
+        <v>3477</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>5483</v>
+        <v>5364</v>
       </c>
       <c r="P75">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="Q75">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="R75">
         <v>39</v>
       </c>
       <c r="S75">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="T75">
         <v>319</v>
@@ -9074,16 +9077,16 @@
         <v>334</v>
       </c>
       <c r="V75">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="W75">
-        <v>165837</v>
+        <v>165235</v>
       </c>
       <c r="X75">
-        <v>96537</v>
+        <v>96871</v>
       </c>
       <c r="Y75">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Z75">
         <v>4985</v>
@@ -9092,10 +9095,10 @@
         <v>969</v>
       </c>
       <c r="AB75">
-        <v>62071</v>
+        <v>61135</v>
       </c>
       <c r="AC75">
-        <v>98242</v>
+        <v>98253</v>
       </c>
       <c r="AD75">
         <v>82418</v>
@@ -9107,19 +9110,132 @@
         <v>5142</v>
       </c>
       <c r="AG75">
-        <v>5941</v>
+        <v>5952</v>
       </c>
       <c r="AH75">
-        <v>13597</v>
+        <v>13461</v>
       </c>
       <c r="AI75">
         <v>0</v>
       </c>
       <c r="AJ75">
-        <v>1596</v>
+        <v>1643</v>
       </c>
       <c r="AK75">
-        <v>12001</v>
+        <v>11819</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76">
+        <v>857</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>857</v>
+      </c>
+      <c r="F76">
+        <v>37325</v>
+      </c>
+      <c r="G76">
+        <v>29055</v>
+      </c>
+      <c r="H76">
+        <v>107</v>
+      </c>
+      <c r="I76">
+        <v>1293</v>
+      </c>
+      <c r="J76">
+        <v>6870</v>
+      </c>
+      <c r="K76">
+        <v>8753</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>3761</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>4992</v>
+      </c>
+      <c r="P76">
+        <v>740</v>
+      </c>
+      <c r="Q76">
+        <v>701</v>
+      </c>
+      <c r="R76">
+        <v>40</v>
+      </c>
+      <c r="S76">
+        <v>1405</v>
+      </c>
+      <c r="T76">
+        <v>325</v>
+      </c>
+      <c r="U76">
+        <v>326</v>
+      </c>
+      <c r="V76">
+        <v>754</v>
+      </c>
+      <c r="W76">
+        <v>165558</v>
+      </c>
+      <c r="X76">
+        <v>97699</v>
+      </c>
+      <c r="Y76">
+        <v>1297</v>
+      </c>
+      <c r="Z76">
+        <v>5068</v>
+      </c>
+      <c r="AA76">
+        <v>913</v>
+      </c>
+      <c r="AB76">
+        <v>60581</v>
+      </c>
+      <c r="AC76">
+        <v>100614</v>
+      </c>
+      <c r="AD76">
+        <v>84017</v>
+      </c>
+      <c r="AE76">
+        <v>4671</v>
+      </c>
+      <c r="AF76">
+        <v>5216</v>
+      </c>
+      <c r="AG76">
+        <v>6711</v>
+      </c>
+      <c r="AH76">
+        <v>13643</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>1716</v>
+      </c>
+      <c r="AK76">
+        <v>11928</v>
       </c>
     </row>
   </sheetData>
